--- a/REST API Documentation.xlsx
+++ b/REST API Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Desktop/CMPUT404/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedoh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98018A1-8ACC-0E41-B2B0-AC3A16A4FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F630FE5E-C8D7-4D8F-B634-696EBBFA12CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="460" windowWidth="25440" windowHeight="16260" xr2:uid="{9ED654D3-B3FA-9A48-9BA3-5EE3619868BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9ED654D3-B3FA-9A48-9BA3-5EE3619868BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
   <si>
     <t>Type</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Inbox</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Get a Author's inbox</t>
   </si>
   <si>
@@ -235,16 +232,50 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>https://fast-chamber-90421.herokuapp.com</t>
+  </si>
+  <si>
+    <t>Web Service URL</t>
+  </si>
+  <si>
+    <t>title, source, origin, description, contentType, content, categories, published, visibility, unlisted</t>
+  </si>
+  <si>
+    <t>type, comment</t>
+  </si>
+  <si>
+    <t>id, type</t>
+  </si>
+  <si>
+    <t>Return values exactly match values aligned in the requirements document: https://github.com/abramhindle/CMPUT404-project-socialdistribution/blob/master/project.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,14 +297,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,54 +635,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D147ADB-07F5-184E-9ED5-59F9688C93E5}">
-  <dimension ref="A4:I43"/>
+  <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="61.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="35.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="147.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -647,13 +705,19 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -664,13 +728,16 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -685,15 +752,15 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -704,13 +771,16 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -721,13 +791,16 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
       <c r="H12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -738,13 +811,16 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -755,11 +831,17 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -769,11 +851,17 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
       <c r="H16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -783,11 +871,17 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -797,11 +891,17 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -811,11 +911,17 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -825,11 +931,17 @@
       <c r="D22" t="s">
         <v>33</v>
       </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -842,13 +954,16 @@
       <c r="F23" t="s">
         <v>16</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -859,11 +974,17 @@
       <c r="D24" t="s">
         <v>33</v>
       </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -873,11 +994,20 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -890,11 +1020,17 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -904,11 +1040,20 @@
       <c r="D28" t="s">
         <v>39</v>
       </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -918,11 +1063,17 @@
       <c r="D30" t="s">
         <v>43</v>
       </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -932,11 +1083,20 @@
       <c r="D31" t="s">
         <v>43</v>
       </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
       <c r="H31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
       <c r="B33" t="s">
         <v>47</v>
       </c>
@@ -946,11 +1106,17 @@
       <c r="D33" t="s">
         <v>48</v>
       </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
       <c r="H33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
       <c r="B35" t="s">
         <v>47</v>
       </c>
@@ -960,11 +1126,17 @@
       <c r="D35" t="s">
         <v>49</v>
       </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
       <c r="H35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
       <c r="B37" t="s">
         <v>47</v>
       </c>
@@ -974,11 +1146,17 @@
       <c r="D37" t="s">
         <v>50</v>
       </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -988,13 +1166,16 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -1006,13 +1187,16 @@
         <v>48</v>
       </c>
       <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
         <v>58</v>
       </c>
-      <c r="H41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
@@ -1022,13 +1206,19 @@
       <c r="D42" t="s">
         <v>48</v>
       </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -1039,11 +1229,18 @@
       <c r="D43" t="s">
         <v>48</v>
       </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F2603114-6820-4042-A416-270E61BE8226}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>